--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4032D0-2F33-4A28-B596-6B32F948C793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C27D7-E17A-429E-8A38-BD45C7E1C2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,20 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>seq_comb</t>
-  </si>
-  <si>
     <t>kernel</t>
   </si>
   <si>
-    <t>kernel_comb</t>
-  </si>
-  <si>
     <t>shared</t>
   </si>
   <si>
@@ -84,13 +78,34 @@
     <t>17-20-3</t>
   </si>
   <si>
-    <t>2.87414</t>
-  </si>
-  <si>
-    <t>1.50317</t>
-  </si>
-  <si>
-    <t>1.50307</t>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>time en ms</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>2.97</t>
   </si>
 </sst>
 </file>
@@ -114,13 +129,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -353,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +440,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6BCDA2-B5A4-4277-B9A0-63901A50194C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,90 +797,108 @@
     <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="20">
+        <v>142</v>
+      </c>
+      <c r="E2" s="20">
+        <v>105</v>
+      </c>
+      <c r="F2" s="20">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20">
+        <v>262</v>
+      </c>
+      <c r="H2" s="21">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -847,286 +907,155 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="10">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C27D7-E17A-429E-8A38-BD45C7E1C2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0B4AF-D387-4151-9280-727FD0229385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0B4AF-D387-4151-9280-727FD0229385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F01E72-6AD6-4204-B584-5F10CDCD2785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>seq</t>
   </si>
@@ -87,9 +87,6 @@
     <t>4.38</t>
   </si>
   <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>time en ms</t>
   </si>
   <si>
@@ -106,6 +103,21 @@
   </si>
   <si>
     <t>2.97</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>8.34</t>
   </si>
 </sst>
 </file>
@@ -385,82 +397,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +792,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,267 +807,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="20">
+      <c r="C2" s="17"/>
+      <c r="D2" s="13">
         <v>142</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>105</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>130</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="13">
         <v>262</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="14">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>18</v>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F01E72-6AD6-4204-B584-5F10CDCD2785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D3A46-43DA-45D2-B070-F301545CA208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,19 +839,19 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="13">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E2" s="13">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F2" s="13">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G2" s="13">
         <v>262</v>
       </c>
       <c r="H2" s="14">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D3A46-43DA-45D2-B070-F301545CA208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645AD0C-086A-4352-BCE2-BFD7FE8F7C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>seq</t>
   </si>
@@ -108,16 +108,46 @@
     <t>5.20</t>
   </si>
   <si>
-    <t>3.14</t>
-  </si>
-  <si>
     <t>3.16</t>
   </si>
   <si>
-    <t>8.33</t>
-  </si>
-  <si>
     <t>8.34</t>
+  </si>
+  <si>
+    <t>4.37</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>4.07</t>
   </si>
 </sst>
 </file>
@@ -792,7 +822,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>17</v>
@@ -902,16 +932,16 @@
         <v>24</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -950,11 +980,21 @@
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
@@ -962,11 +1002,21 @@
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645AD0C-086A-4352-BCE2-BFD7FE8F7C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DA51FF-A7F6-47B5-8891-71DF50AEEEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>seq</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>4.07</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>8.43</t>
+  </si>
+  <si>
+    <t>8.42</t>
   </si>
 </sst>
 </file>
@@ -822,7 +843,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,8 +1084,12 @@
       <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
@@ -1072,11 +1097,21 @@
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DA51FF-A7F6-47B5-8891-71DF50AEEEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6B62B-CD96-42D2-8ADD-0C2152EA629D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>seq</t>
   </si>
@@ -90,12 +90,6 @@
     <t>time en ms</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
     <t>0.43</t>
   </si>
   <si>
@@ -126,15 +120,6 @@
     <t>2.90</t>
   </si>
   <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
     <t>5.13</t>
   </si>
   <si>
@@ -169,6 +154,84 @@
   </si>
   <si>
     <t>8.42</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>2.52</t>
   </si>
 </sst>
 </file>
@@ -502,6 +565,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,18 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +906,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +945,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -906,22 +969,32 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="11">
+        <v>94</v>
+      </c>
+      <c r="E3" s="11">
+        <v>74</v>
+      </c>
+      <c r="F3" s="11">
+        <v>88</v>
+      </c>
+      <c r="G3" s="11">
+        <v>184</v>
+      </c>
+      <c r="H3" s="12">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -937,213 +1010,267 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6B62B-CD96-42D2-8ADD-0C2152EA629D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD6C20-67AB-432B-92FB-29A667F40B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -906,7 +906,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD6C20-67AB-432B-92FB-29A667F40B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5B6A7-0FC0-4F76-A09B-A85EA82EB430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>seq</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>2.52</t>
+  </si>
+  <si>
+    <t>shared_stream</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>2.41</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -496,11 +511,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,6 +686,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,15 +1026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6BCDA2-B5A4-4277-B9A0-63901A50194C}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" style="2"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
@@ -1251,35 +1374,112 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\M1\S2\ProgGraphique\Projet\github\ProjetCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5B6A7-0FC0-4F76-A09B-A85EA82EB430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0346F2-B6A9-455C-AF8B-8F3A8FF98960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{861BEEB7-6285-4C35-8AB7-9362AFA7870C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>seq</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>2.41</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>8.30</t>
   </si>
 </sst>
 </file>
@@ -664,52 +685,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1050,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1065,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1091,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1092,7 +1115,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
@@ -1114,10 +1137,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1140,7 +1163,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>14</v>
@@ -1162,8 +1185,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1186,8 +1209,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1208,10 +1231,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1234,7 +1257,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="27"/>
       <c r="C9" s="13" t="s">
         <v>14</v>
@@ -1256,8 +1279,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1280,8 +1303,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1302,10 +1325,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1328,7 +1351,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="27"/>
       <c r="C13" s="13" t="s">
         <v>14</v>
@@ -1350,8 +1373,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1374,58 +1397,78 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+      <c r="D16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="27"/>
       <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1448,7 +1491,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
